--- a/dist/Dinostend/Tables/kvu_error_codes_my.xlsx
+++ b/dist/Dinostend/Tables/kvu_error_codes_my.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62663B91-907C-4D3A-B8D4-EAFD2E0D0DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C0DB1-3342-4149-A1E4-81520CEA2C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0941886E-62DC-494F-8D3F-16A1562FE0E1}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +1960,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D75" s="5">
         <v>0</v>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F75" s="12">
         <f t="shared" si="7"/>
-        <v>26630</v>
+        <v>26633</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
